--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.1291750215664</v>
+        <v>499.6823605626521</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.42186718751606</v>
+        <v>51.68236056265209</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.46385600500865</v>
+        <v>12.06495752168237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.79116383906063</v>
+        <v>12.06495752168237</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>449.0999999999983</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.28</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.66483080554379</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.72978832722616</v>
+        <v>41.6086347173128</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.32314874444808</v>
+        <v>43.83362933974247</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,54 +1060,12 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>191.1399999999998</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1221,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>192.2399999999999</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>190.8349999999998</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -1243,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>197.3749999999999</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -1254,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>200.8399999999999</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
@@ -1265,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>147.4849999999999</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -1276,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>155.205</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>149.5399999999999</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>157.865</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1309,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>156.97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.21999999999935</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1331,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.58999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1342,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.85499999999935</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1353,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.98999999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1364,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.05</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1375,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>99.51000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1386,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>98.41000000000037</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1397,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>94.89000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1408,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>95.94000000000037</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1419,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>99.57500000000036</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1430,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>151.745</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1441,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>142.76</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -1452,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>139.4150000000011</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -1463,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>141.725</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1474,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>150.375</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1485,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>191.1399999999998</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -1496,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>192.2399999999999</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
@@ -1507,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>190.8349999999998</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -1518,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>197.3749999999999</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36">
@@ -1529,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>200.8399999999999</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -1540,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151.745</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38">
@@ -1551,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>142.76</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -1562,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>139.4150000000011</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
@@ -1573,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>141.725</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41">
@@ -1584,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>150.375</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>41.13999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1642,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>42.23999999999987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1653,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40.83499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1664,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>47.37499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1675,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>50.83999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1686,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.745</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1697,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1708,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1719,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1730,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.375</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1788,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1799,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1810,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1821,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1887,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1898,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1909,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1920,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1931,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1942,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6.66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1953,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>14.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1964,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7.68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1975,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>14.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1986,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1997,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2008,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2019,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2030,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2041,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,61 +2093,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
